--- a/Document/Group39-.SE-8.1-ProjectTestCaseSprint1.xlsx
+++ b/Document/Group39-.SE-8.1-ProjectTestCaseSprint1.xlsx
@@ -11,20 +11,20 @@
     <sheet state="visible" name="Đổi mật khẩu" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Quản lý xe" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Quản lý loại xe" sheetId="8" r:id="rId11"/>
-    <sheet state="hidden" name="Quản lý nhà cung cấp" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Quản lý nhà cung cấp" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="yfNJ0BIWSieKP773VPnFWmf0Mlz15JoXkfg/B13rkR0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="9O9xPcgUdOd+2xYQb6nMRxLkZob6VWYkL3LEJI6iY+E="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="282">
   <si>
     <t>TEST CASE SYSTEM SPRINT 1</t>
   </si>
@@ -228,7 +228,7 @@
   </si>
   <si>
     <t>1. Email/Tên đăng nhập: daanhthinh@gmail.com  
-2. Mật khẩu: 123  
+2. Mật khẩu: Password123@
 3. Nhấn nút "Login"</t>
   </si>
   <si>
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>1. Không nhập Email/Tên đăng nhập  
-2. Mật khẩu: 123  
+2. Mật khẩu: password123  
 3. Nhấn nút "Login"</t>
   </si>
   <si>
@@ -397,7 +397,7 @@
 4. Tên: Nguyễn Văn A  
 5. Số điện thoại: 0912345678  
 6. Địa chỉ: 123 Đường ABC  
-7. Mật khẩu: Password123  
+7. Mật khẩu: Password123@ 
 8. Click vào nút "Đăng ký"</t>
   </si>
   <si>
@@ -415,11 +415,11 @@
 3. Tên: Nguyễn Văn A  
 4. Số điện thoại: 0912345678  
 5. Địa chỉ: 123 Đường ABC  
-6. Mật khẩu: Password123  
+6. Mật khẩu: Password123@  
 7. Click vào nút "Đăng ký"</t>
   </si>
   <si>
-    <t>Hệ thống thông báo" User name không được chứa ký tự đặc biệt và có độ dài từ 4 - 12 ký tự ", sau dó yêu cầu người dùng nhập lại</t>
+    <t>Hệ thống thông báo" Mật khẩu phải chứa ít nhất một chữ cái"</t>
   </si>
   <si>
     <t>FUNC-DK03</t>
@@ -451,7 +451,7 @@
 3. Tên: Nguyễn Văn A  
 4. Số điện thoại: 0912345678  
 5. Địa chỉ: 123 Đường ABC  
-6. Mật khẩu: Password123  
+6. Mật khẩu: Password123@  
 7. Click vào nút "Đăng ký"</t>
   </si>
   <si>
@@ -469,7 +469,7 @@
 3. Tên: (để trống)  
 4. Số điện thoại: 0912345678  
 5. Địa chỉ: 123 Đường ABC  
-6. Mật khẩu: Password123  
+6. Mật khẩu: Password123@
 7. Click vào nút "Đăng ký"</t>
   </si>
   <si>
@@ -479,13 +479,13 @@
     <t>Nhập sai số SĐT nhưng vẫn đăng ký thành công</t>
   </si>
   <si>
-    <t>1. Nhập FullName: admin 
- 2. Nhập Phone: 07026 
- 3. Nhập tên đăng nhập: "an" 
- 4. Chọn loại cửa hàng: "cafe" 
- 5. Nhập Password: 123456 
- 6. Nhập lại Password: 123123 
- 7. Click vào "Đăng ký"</t>
+    <t>1. Email: user@example.com
+2. Tên đăng nhập: user123  
+3. Tên: Nguyễn Văn A  
+4. Số điện thoại: 0912
+5. Địa chỉ: 123 Đường ABC  
+6. Mật khẩu: Password123@  
+7. Click vào nút "Đăng ký"</t>
   </si>
   <si>
     <t>Hệ thống thông báo "Số điện thoại không hợp lệ"</t>
@@ -615,19 +615,16 @@
     <t>GUI-DMK02</t>
   </si>
   <si>
-    <t>[Mật khẩu hiện tại] Textbox</t>
+    <t>[Mật khẩu mới] Textbox</t>
   </si>
   <si>
     <t>GUI-DMK03</t>
   </si>
   <si>
-    <t>[Mật khẩu mới] Textbox</t>
+    <t>[Xác nhận mật khẩu mới] Textbox</t>
   </si>
   <si>
     <t>GUI-DMK04</t>
-  </si>
-  <si>
-    <t>[Xác nhận mật khẩu mới] Textbox</t>
   </si>
   <si>
     <t>GUI-DMK05</t>
@@ -724,365 +721,287 @@
     <t>Hệ thống thông báo "Mật khẩu mới phải chứa ít nhất một chữ cái"</t>
   </si>
   <si>
-    <t>GUI_SHOW Trang tìm kiếm</t>
-  </si>
-  <si>
-    <t>FUNCTION_SHOW Trang tìm kiếm</t>
+    <t>GUI_SHOW Quản lý xe</t>
+  </si>
+  <si>
+    <t>GUI_QLX01</t>
+  </si>
+  <si>
+    <t>[Thêm mới] Button</t>
+  </si>
+  <si>
+    <t>Trí</t>
+  </si>
+  <si>
+    <t>GUI_QLX02</t>
+  </si>
+  <si>
+    <t>[Import File] Button</t>
+  </si>
+  <si>
+    <t>GUI_QLX03</t>
+  </si>
+  <si>
+    <t>[Export] Button</t>
+  </si>
+  <si>
+    <t>Text color : white - Status : enable</t>
+  </si>
+  <si>
+    <t>GUI_QLX04</t>
+  </si>
+  <si>
+    <t>[Generate Report] Button</t>
+  </si>
+  <si>
+    <t>GUI_QLX05</t>
+  </si>
+  <si>
+    <t>[Sửa] Button</t>
+  </si>
+  <si>
+    <t>GUI_QLX06</t>
+  </si>
+  <si>
+    <t>[Xóa] Button</t>
+  </si>
+  <si>
+    <t>GUI_QLX07</t>
+  </si>
+  <si>
+    <t>[Trước] Button</t>
+  </si>
+  <si>
+    <t>GUI_QLX08</t>
+  </si>
+  <si>
+    <t>[Tìm kiếm] Input</t>
+  </si>
+  <si>
+    <t>GUI_QLX09</t>
+  </si>
+  <si>
+    <t>[Sau] Button</t>
+  </si>
+  <si>
+    <t>FUNCTION_SHOW Quản lý xe</t>
+  </si>
+  <si>
+    <t>FUNC-QLX01</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng thêm mới xe thành công</t>
+  </si>
+  <si>
+    <t>1. Click vào nút thêm mới
+2. Tên xe: VF3_2025
+3. Loại xe: VF3
+4. Giá xe: 500.000.000
+5. Màu sắc: vàng
+6. Động cơ: dizen
+7. Trạng thái: còn hàng
+8. Nhà cung cấp: Vinfast
+9. Thông số kĩ thuật: ABC
+10. Mô tả: ABC
+11. Up hình ảnh 
+12. Thêm mới</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo thêm thành công</t>
+  </si>
+  <si>
+    <t>FUNC-QLX02</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng thêm mới xe không thành công</t>
+  </si>
+  <si>
+    <t>1. Click vào nút thêm mới
+2. Nhập bỏ qua các trường
+12. Thêm mới</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "Vui lòng điền vào trường này"</t>
+  </si>
+  <si>
+    <t>FUNC-QLX03</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm
+2. Nhập thông tin cần tìm</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị những dữ liệu cần tìm</t>
+  </si>
+  <si>
+    <t>FUNC-QLX04</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng import file</t>
+  </si>
+  <si>
+    <t>1. Click vào nút import file
+2. Chọn file excel bất kì
+3. Nhấn nút open</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ sao lưu dữ liệu từ excel lên</t>
+  </si>
+  <si>
+    <t>FUNC-QLX05</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng export</t>
+  </si>
+  <si>
+    <t>1. Chọn kiểu file cần xuất
+2. Click vào nút export</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ xuất thông tin xe ra file cần xuất và down về máy</t>
+  </si>
+  <si>
+    <t>FUNC-QLX06</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng generate report</t>
+  </si>
+  <si>
+    <t>1. Click vào nút generate report</t>
+  </si>
+  <si>
+    <t>Hệ thống xuất file báo cáo về máy</t>
+  </si>
+  <si>
+    <t>FUNC-QLX07</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa</t>
+  </si>
+  <si>
+    <t>1. Click vào nút sửa và nhập thông tin cần sửa
+2. Tên xe: VF9_2025
+3. Loại xe: VF9
+4. Giá xe: 500.000.000
+5. Màu sắc: vàng
+6. Động cơ: dizen
+7. Trạng thái: còn hàng
+8. Nhà cung cấp: Vinfast
+9. Thông số kĩ thuật: ABC
+10. Mô tả: ABC
+11. Up hình ảnh 
+12. Thêm mới</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "sửa thành công"</t>
+  </si>
+  <si>
+    <t>FUNC-QLX08</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng xóa</t>
+  </si>
+  <si>
+    <t>1. Click vào chức năng xóa
+2. Click vào nút ok để xóa</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "Xóa thành công"</t>
+  </si>
+  <si>
+    <t>FUNC-QLX09</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng qua trang</t>
+  </si>
+  <si>
+    <t>1. Click vào nút sau</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị trang tiếp theo của danh sách</t>
+  </si>
+  <si>
+    <t>FUNC-QLX10</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng lùi trang</t>
+  </si>
+  <si>
+    <t>1. Click vào nút trước</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị trang trước của danh sách</t>
   </si>
   <si>
     <t xml:space="preserve">Quản lý loại xe </t>
   </si>
   <si>
-    <t>GUI_SHOW Trang lọc sản phẩm</t>
-  </si>
-  <si>
-    <t>FUNCTION_SHOW lọc sản phẩm</t>
-  </si>
-  <si>
-    <t>Tuấn</t>
-  </si>
-  <si>
-    <t>GUI_SHOW Trang quản lý thông tin cá nhân</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN01</t>
-  </si>
-  <si>
-    <t>[Tên] Input</t>
-  </si>
-  <si>
-    <t>Kiểm tra</t>
-  </si>
-  <si>
-    <t>Người dùng truy cập vào trang thông tin cá nhân</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chữ nhập có màu đen</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN02</t>
-  </si>
-  <si>
-    <t>[Họ] Input</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN03</t>
-  </si>
-  <si>
-    <t>[Chọn Tỉnh/Thành phố] Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn </t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN04</t>
-  </si>
-  <si>
-    <t>[Chọn Quận/Huyện] Select</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN05</t>
-  </si>
-  <si>
-    <t>[Chọn Phường/Xã ] Select</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN06</t>
-  </si>
-  <si>
-    <t>[Nhập địa chỉ cụ thể] Input</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN07</t>
-  </si>
-  <si>
-    <t>[Số điện thoại] Input</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN08</t>
-  </si>
-  <si>
-    <t>[Giới tính] Radio</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN09</t>
-  </si>
-  <si>
-    <t>[Ngày sinh] DatePicker</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN10</t>
-  </si>
-  <si>
-    <t>[Cập Nhật] Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chữ màu trắng và có nền màu đen</t>
-  </si>
-  <si>
-    <t>GUI-QLTTCN11</t>
-  </si>
-  <si>
-    <t>[Đóng] Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chữ màu đen và có nền màu trắng</t>
-  </si>
-  <si>
-    <t>FUNCTION_SHOW quản lý thông tin cá nhân</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN1</t>
-  </si>
-  <si>
-    <t>Xác thực trang tài khoản cá nhân  đang hiển thị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Khởi động trang web.
-2. Hiển thị trang chủ.
-3. Nhấn vào "Avatar -&gt; Thông tin cá nhân" 
-</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập</t>
-  </si>
-  <si>
-    <t>Hiển thị thông tin tài khoản của khách hàng</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN2</t>
-  </si>
-  <si>
-    <t>Cập nhật ảnh đại diện</t>
-  </si>
-  <si>
-    <t>Nhấn vào ảnh để thay dổi</t>
-  </si>
-  <si>
-    <t>Ảnh được cập nhật thành công</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN3</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin thành công</t>
-  </si>
-  <si>
-    <t>1.Nhấn chỉnh sửa thông tin cá nhân
-2. Nhập Tên :Tuan
-3. Nhập Họ :Tran Dang
-4.Chọn Tỉnh :Thành phố Đà Nẵng
-5. Chọn Quận:Quận Ngũ Hành Sơn
-6.Chọn Phường:Mỹ An
-7. Địa chỉ cụ thể :K29/3 Hồ Xuân Hương3. Chọn Quận:Quận Ngũ Hành Sơn
-8.Nhập SĐT:0905843460
-9.Chọn Giới tính :Nam
-10. Chọn Ngày sinh:28/12/2002
-11. Nhấn cập nhật</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN4</t>
-  </si>
-  <si>
-    <t>Hủy cập nhật thông tin cá nhân</t>
-  </si>
-  <si>
-    <t>1.Nhấn chỉnh sửa thông tin cá nhân
-2. Nhập Tên :Tuan
-3. Nhập Họ :Tran Dang
-4.Chọn Tỉnh :Thành phố Đà Nẵng
-5. Chọn Quận:Quận Ngũ Hành Sơn
-6.Chọn Phường:Mỹ An
-7. Địa chỉ cụ thể :K29/3 Hồ Xuân Hương3. Chọn Quận:Quận Ngũ Hành Sơn
-8.Nhập SĐT:0905843460
-9.Chọn Giới tính :Nam
-10. Chọn Ngày sinh:28/12/2002
-11. Nhấn Hủy</t>
-  </si>
-  <si>
-    <t>Thông tin không được cập nhật</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN5</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin cá nhân bỏ trống Họ hoặc Tên</t>
-  </si>
-  <si>
-    <t>1.Nhấn chỉnh sửa thông tin cá nhân
-2. Nhập Tên :Tuan
-3. Nhập Họ :
-4.Chọn Tỉnh :Thành phố Đà Nẵng
-5. Chọn Quận:Quận Ngũ Hành Sơn
-6.Chọn Phường:Mỹ An
-7. Địa chỉ cụ thể :K29/3 Hồ Xuân Hương3. Chọn Quận:Quận Ngũ Hành Sơn
-8.Nhập SĐT:0905843460
-9.Chọn Giới tính :Nam
-10. Chọn Ngày sinh:28/12/2002
-11. Nhấn cập nhật</t>
-  </si>
-  <si>
-    <t>Báo đỏ trường nhập họ</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN6</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin cá nhân bỏ trống Tỉnh/Quận/Phường</t>
-  </si>
-  <si>
-    <t>1.Nhấn chỉnh sửa thông tin cá nhân
-2. Nhập Tên :Tuan
-3. Nhập Họ :Tran Dang
-4.Chọn Tỉnh :Thành phố Đà Đẵng
-5. Chọn Quận:Quận Ngũ Hành Sơn
-6.Chọn Phường:
-7. Địa chỉ cụ thể :K29/3 Hồ Xuân Hương3. Chọn Quận:Quận Ngũ Hành Sơn
-8.Nhập SĐT:0905843460
-9.Chọn Giới tính :Nam
-10. Chọn Ngày sinh:28/12/2002
-11. Nhấn cập nhật</t>
-  </si>
-  <si>
-    <t>Báo đỏ trường chọn Phường</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cập nhật thông tin cá nhân bỏ trống Địa chỉ cụ thể </t>
-  </si>
-  <si>
-    <t>1.Nhấn chỉnh sửa thông tin cá nhân
-2. Nhập Tên :Tuan
-3. Nhập Họ :Tran Dang
-4.Chọn Tỉnh :Thành phố Đà Nẵng
-5. Chọn Quận:Quận Ngũ Hành Sơn
-6.Chọn Phường:Mỹ An
-7. Địa chỉ cụ thể : 
-8.Nhập SĐT:0905843460
-9.Chọn Giới tính :Nam
-10. Chọn Ngày sinh:28/12/2002
-11. Nhấn cập nhật</t>
-  </si>
-  <si>
-    <t>Báo đỏ trường nhập Địa chỉ cụ thể</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN8</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin cá nhân bỏ trống SĐT</t>
-  </si>
-  <si>
-    <t>1.Nhấn chỉnh sửa thông tin cá nhân
-2. Nhập Tên :Tuan
-3. Nhập Họ :Tran Dang
-4.Chọn Tỉnh :Thành phố Đà Nẵng
-5. Chọn Quận:Quận Ngũ Hành Sơn
-6.Chọn Phường:Mỹ An
-7. Địa chỉ cụ thể : K29/3 Hồ Xuân Hương. Chọn Quận:Quận Ngũ Hành Sơn
-8.Nhập SĐT:
-9.Chọn Giới tính :Nam
-10. Chọn Ngày sinh:28/12/2002
-11. Nhấn cập nhật</t>
-  </si>
-  <si>
-    <t>Báo đỏ trường nhập SĐT</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN9</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin cá nhân bỏ trống Ngày sinh</t>
-  </si>
-  <si>
-    <t>1.Nhấn chỉnh sửa thông tin cá nhân
-2. Nhập Tên :Tuan
-3. Nhập Họ :Tran Dang
-4.Chọn Tỉnh :Thành phố Đà Nẵng
-5. Chọn Quận:Quận Ngũ Hành Sơn
-6.Chọn Phường:Mỹ An
-7. Địa chỉ cụ thể : K29/3 Hồ Xuân Hương. Chọn Quận:Quận Ngũ Hành Sơn
-8.Nhập SĐT:0905843460
-9.Chọn Giới tính :Nam
-10. Chọn Ngày sinh:
-11. Nhấn cập nhật</t>
-  </si>
-  <si>
-    <t>Báo đỏ trường chọn ngày sinh</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN10</t>
-  </si>
-  <si>
-    <t>Đổi mật khẩu thành công</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Nhấn Đổi mật khẩu
-2. Nhập Mật khẩu hiện tại :Dangtuan1234@
-3. Nhập Mật khẩu mới:Dangtuan2002@
-4.Nhập lại Mật khẩu mới:Dangtuan2002@
-5. Nhấn button Đổi mật khẩu
-</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN11</t>
-  </si>
-  <si>
-    <t>Đổi mật khẩu thất bại khi nhập mật khẩu hiện tại sai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Nhấn Đổi mật khẩu
-2. Nhập Mật khẩu hiện tại :Dangtuan00@
-3. Nhập Mật khẩu mới:Dangtuan2002@
-4.Nhập lại Mật khẩu mới:Dangtuan2002@
-5. Nhấn button Đổi mật khẩu
-</t>
-  </si>
-  <si>
-    <t>Hệ thống thông báo "Mật khẩu cũ không chính xác"</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN12</t>
-  </si>
-  <si>
-    <t>Đổi mật khẩu thất bại khi nhập lại mật khẩu mới không trùng nhau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Nhấn Đổi mật khẩu
-2. Nhập Mật khẩu hiện tại :Dangtuan1234@
-3. Nhập Mật khẩu mới:Dangtuan2002@
-4.Nhập lại Mật khẩu mới:Dangtuan2003@
-5. Nhấn button Đổi mật khẩu
-</t>
-  </si>
-  <si>
-    <t>Báo đỏ mật khẩu xác nhận không khớp</t>
-  </si>
-  <si>
-    <t>FUNC-QLTTCN13</t>
-  </si>
-  <si>
-    <t>Đổi mật khẩu thất bại khi nhập mật khẩu mới không đúng định dạng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Nhấn Đổi mật khẩu
-2. Nhập Mật khẩu hiện tại :Dangtuan1234@
-3. Nhập Mật khẩu mới:dangtuan2002@
-4.Nhập lại Mật khẩu mới:dangtuan2003@
-5. Nhấn button Đổi mật khẩu
-</t>
-  </si>
-  <si>
-    <t>Báo đỏ mật khẩu nhập không đúng định dạng</t>
+    <t>GUI_SHOW Quản lý loại xe</t>
+  </si>
+  <si>
+    <t>FUNCTION_SHOW Quản lý loại xe</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng thêm mới loại xe thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click vào nút thêm mới
+2. Loại xe :VF3
+3. Nhãn hiệu Vinfast
+4. Up ảnh
+5. Click vào nút thêm mới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click vào nút thêm mới
+2. Loại xe :VF4
+3. Nhãn hiệu Vinfast
+4. Up ảnh
+5. Click vào nút sửa </t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "Cập nhật thành công"</t>
+  </si>
+  <si>
+    <t>GUI_SHOW  Trang Quản lý nhà cung câp</t>
+  </si>
+  <si>
+    <t>[Excel] Button</t>
+  </si>
+  <si>
+    <t>FUNCTION_SHOW Quản lý nhà cung câp</t>
+  </si>
+  <si>
+    <t>FUNC-QLNCC01</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng thêm mới nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Click vào nút thêm mới
+2. Nhập tên nhà cung cấp: vinfasr
+3. Số điện thoại: 0123456789
+4. Nhập email: votantri2006@gmail.com
+5. Click thêm mới</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị danh sách đã thêm và thông báo "thêm thành công"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click vào nút thêm mới
+2. Nhập tên nhà cung cấp: vinfasr
+3. Số điện thoại: 01234567899
+4. Nhập email: votantri2006@gmail.com
+5. Click vào nút sửa </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1143,6 +1062,20 @@
       <sz val="13.0"/>
       <color rgb="FF00000A"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF081B3A"/>
+      <name val="SegoeuiPc"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1262,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1464,24 +1397,58 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1605,39 +1572,11 @@
     <xdr:ext cx="7477125" cy="5105400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Hình ảnh"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Hình ảnh"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>771525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8772525" cy="5248275"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Hình ảnh"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1666,7 +1605,7 @@
     <xdr:ext cx="8572500" cy="4838700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Hình ảnh"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Hình ảnh"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1688,15 +1627,186 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8763000" cy="4895850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image7.png" title="Hình ảnh"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10029825" cy="4800600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image6.png" title="Hình ảnh"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4857750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9839325" cy="4695825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image10.png" title="Hình ảnh"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9886950" cy="5086350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image9.png" title="Hình ảnh"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9715500" cy="4800600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image11.png" title="Hình ảnh"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9382125" cy="4714875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image8.png" title="Hình ảnh"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5087,7 +5197,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="19">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="C4" s="20">
         <v>0.0</v>
@@ -5099,7 +5209,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="22">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
@@ -5114,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="19">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="C5" s="20">
         <v>0.0</v>
@@ -5126,7 +5236,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="22">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
@@ -9894,7 +10004,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="20">
         <v>0.0</v>
@@ -9906,7 +10016,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="52"/>
@@ -9921,7 +10031,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="20">
         <v>0.0</v>
@@ -9933,7 +10043,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="52"/>
@@ -11234,7 +11344,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="19">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="C4" s="20">
         <v>0.0</v>
@@ -11246,7 +11356,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="22">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="52"/>
@@ -11261,7 +11371,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="19">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="C5" s="20">
         <v>0.0</v>
@@ -11273,7 +11383,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="22">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="52"/>
@@ -12992,8 +13102,8 @@
       <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="20">
-        <v>20.0</v>
+      <c r="B4" s="19">
+        <v>9.0</v>
       </c>
       <c r="C4" s="20">
         <v>0.0</v>
@@ -13004,8 +13114,8 @@
       <c r="E4" s="21">
         <v>0.0</v>
       </c>
-      <c r="F4" s="16">
-        <v>20.0</v>
+      <c r="F4" s="22">
+        <v>9.0</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="52"/>
@@ -13019,8 +13129,8 @@
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20">
-        <v>20.0</v>
+      <c r="B5" s="19">
+        <v>9.0</v>
       </c>
       <c r="C5" s="20">
         <v>0.0</v>
@@ -13031,8 +13141,8 @@
       <c r="E5" s="21">
         <v>0.0</v>
       </c>
-      <c r="F5" s="16">
-        <v>20.0</v>
+      <c r="F5" s="22">
+        <v>9.0</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="52"/>
@@ -13504,81 +13614,11 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" ht="69.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" ht="69.75" customHeight="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" ht="69.75" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" ht="69.75" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" ht="69.75" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="7"/>
-    </row>
+    <row r="21" ht="69.75" customHeight="1"/>
+    <row r="22" ht="69.75" customHeight="1"/>
+    <row r="23" ht="69.75" customHeight="1"/>
+    <row r="24" ht="69.75" customHeight="1"/>
+    <row r="25" ht="69.75" customHeight="1"/>
     <row r="26" ht="69.75" customHeight="1"/>
     <row r="27" ht="69.75" customHeight="1"/>
     <row r="28" ht="69.75" customHeight="1"/>
@@ -14543,11 +14583,6 @@
     <row r="987" ht="69.75" customHeight="1"/>
     <row r="988" ht="69.75" customHeight="1"/>
     <row r="989" ht="69.75" customHeight="1"/>
-    <row r="990" ht="69.75" customHeight="1"/>
-    <row r="991" ht="69.75" customHeight="1"/>
-    <row r="992" ht="69.75" customHeight="1"/>
-    <row r="993" ht="69.75" customHeight="1"/>
-    <row r="994" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="F7:F9"/>
@@ -14932,9 +14967,6 @@
       <c r="A14" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>180</v>
-      </c>
       <c r="C14" s="68"/>
       <c r="D14" s="71"/>
       <c r="E14" s="32" t="s">
@@ -14965,18 +14997,18 @@
     </row>
     <row r="15" ht="69.75" customHeight="1">
       <c r="A15" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="71"/>
       <c r="E15" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>41</v>
@@ -15017,22 +15049,22 @@
     </row>
     <row r="17" ht="116.25" customHeight="1">
       <c r="A17" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="C17" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="D17" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="E17" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="74" t="s">
-        <v>188</v>
-      </c>
       <c r="F17" s="74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>41</v>
@@ -15056,22 +15088,22 @@
     </row>
     <row r="18" ht="69.75" customHeight="1">
       <c r="A18" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="C18" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="D18" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>192</v>
-      </c>
       <c r="F18" s="74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>41</v>
@@ -15095,22 +15127,22 @@
     </row>
     <row r="19" ht="69.75" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="72" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="74" t="s">
         <v>163</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>41</v>
@@ -15134,16 +15166,16 @@
     </row>
     <row r="20" ht="69.75" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="72" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" s="74" t="s">
         <v>167</v>
@@ -15173,22 +15205,22 @@
     </row>
     <row r="21" ht="81.0" customHeight="1">
       <c r="A21" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="C21" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="D21" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>201</v>
-      </c>
       <c r="F21" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>41</v>
@@ -15212,22 +15244,22 @@
     </row>
     <row r="22" ht="69.75" customHeight="1">
       <c r="A22" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="C22" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="D22" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>205</v>
-      </c>
       <c r="F22" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>41</v>
@@ -16295,10 +16327,11 @@
       <c r="G2" s="12"/>
       <c r="H2" s="52"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" ht="69.75" customHeight="1">
       <c r="A3" s="16"/>
@@ -16329,20 +16362,20 @@
       <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="20">
-        <v>7.0</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="C4" s="19">
         <v>0.0</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="22">
         <v>0.0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="75">
         <v>0.0</v>
       </c>
-      <c r="F4" s="16">
-        <v>7.0</v>
+      <c r="F4" s="19">
+        <v>19.0</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="52"/>
@@ -16356,20 +16389,20 @@
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20">
-        <v>7.0</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="B5" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="75">
         <v>0.0</v>
       </c>
-      <c r="F5" s="16">
-        <v>7.0</v>
+      <c r="F5" s="19">
+        <v>19.0</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="52"/>
@@ -16389,7 +16422,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="52"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -16474,8 +16507,8 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" ht="69.75" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>206</v>
+      <c r="A10" s="67" t="s">
+        <v>205</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -16491,139 +16524,727 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" ht="69.75" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
+      <c r="A11" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L11" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M11" s="7"/>
     </row>
     <row r="12" ht="69.75" customHeight="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
+      <c r="A12" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M12" s="7"/>
     </row>
     <row r="13" ht="69.75" customHeight="1">
-      <c r="A13" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
+      <c r="A13" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" ht="69.75" customHeight="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
+      <c r="A14" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" ht="69.75" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="A15" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L15" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16" ht="69.75" customHeight="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
+      <c r="A16" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17" ht="69.75" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
+      <c r="A17" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L17" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18" ht="69.75" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
+      <c r="A18" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" ht="69.75" customHeight="1"/>
-    <row r="20" ht="69.75" customHeight="1"/>
-    <row r="21" ht="69.75" customHeight="1"/>
-    <row r="22" ht="69.75" customHeight="1"/>
-    <row r="23" ht="69.75" customHeight="1"/>
-    <row r="24" ht="69.75" customHeight="1"/>
-    <row r="25" ht="69.75" customHeight="1"/>
-    <row r="26" ht="69.75" customHeight="1"/>
-    <row r="27" ht="69.75" customHeight="1"/>
-    <row r="28" ht="69.75" customHeight="1"/>
-    <row r="29" ht="69.75" customHeight="1"/>
-    <row r="30" ht="69.75" customHeight="1"/>
+    <row r="19" ht="69.75" customHeight="1">
+      <c r="A19" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L19" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" ht="69.75" customHeight="1">
+      <c r="A20" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="83"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I22" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L22" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" s="83"/>
+    </row>
+    <row r="23" ht="69.75" customHeight="1">
+      <c r="A23" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I23" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L23" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" s="83"/>
+    </row>
+    <row r="24" ht="69.75" customHeight="1">
+      <c r="A24" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I24" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L24" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" s="85"/>
+    </row>
+    <row r="25" ht="69.75" customHeight="1">
+      <c r="A25" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="83"/>
+    </row>
+    <row r="26" ht="69.75" customHeight="1">
+      <c r="A26" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I26" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L26" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" s="88"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I27" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L27" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="88"/>
+    </row>
+    <row r="28" ht="69.75" customHeight="1">
+      <c r="A28" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I28" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L28" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" s="89"/>
+    </row>
+    <row r="29" ht="69.75" customHeight="1">
+      <c r="A29" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I29" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L29" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M29" s="90"/>
+    </row>
+    <row r="30" ht="69.75" customHeight="1">
+      <c r="A30" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I30" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L30" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" s="90"/>
+    </row>
     <row r="31" ht="69.75" customHeight="1"/>
     <row r="32" ht="69.75" customHeight="1"/>
     <row r="33" ht="69.75" customHeight="1"/>
@@ -17594,6 +18215,12 @@
     <row r="998" ht="69.75" customHeight="1"/>
     <row r="999" ht="69.75" customHeight="1"/>
     <row r="1000" ht="69.75" customHeight="1"/>
+    <row r="1001" ht="69.75" customHeight="1"/>
+    <row r="1002" ht="69.75" customHeight="1"/>
+    <row r="1003" ht="69.75" customHeight="1"/>
+    <row r="1004" ht="69.75" customHeight="1"/>
+    <row r="1005" ht="69.75" customHeight="1"/>
+    <row r="1006" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="F7:F9"/>
@@ -17603,7 +18230,7 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A20:M20"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -17657,7 +18284,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -17700,20 +18327,20 @@
       <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="20">
-        <v>13.0</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="C4" s="19">
         <v>0.0</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="22">
         <v>0.0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="75">
         <v>0.0</v>
       </c>
-      <c r="F4" s="16">
-        <v>13.0</v>
+      <c r="F4" s="19">
+        <v>19.0</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="52"/>
@@ -17727,20 +18354,1983 @@
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="B5" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" ht="408.0" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" ht="69.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="69.75" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" ht="69.75" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" ht="69.75" customHeight="1">
+      <c r="A10" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" ht="69.75" customHeight="1">
+      <c r="A11" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L11" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" ht="69.75" customHeight="1">
+      <c r="A12" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" ht="69.75" customHeight="1">
+      <c r="A13" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" ht="69.75" customHeight="1">
+      <c r="A14" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" ht="69.75" customHeight="1">
+      <c r="A15" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L15" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" ht="69.75" customHeight="1">
+      <c r="A16" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" ht="69.75" customHeight="1">
+      <c r="A17" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L17" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" ht="69.75" customHeight="1">
+      <c r="A18" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" ht="69.75" customHeight="1">
+      <c r="A19" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L19" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" ht="69.75" customHeight="1">
+      <c r="A20" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" ht="69.75" customHeight="1">
+      <c r="A21" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" ht="69.75" customHeight="1">
+      <c r="A22" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I22" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L22" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" ht="69.75" customHeight="1">
+      <c r="A23" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I23" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L23" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" ht="69.75" customHeight="1">
+      <c r="A24" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I24" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L24" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" ht="69.75" customHeight="1">
+      <c r="A25" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" ht="96.0" customHeight="1">
+      <c r="A26" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I26" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L26" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" s="91"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I27" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L27" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="91"/>
+    </row>
+    <row r="28" ht="69.75" customHeight="1">
+      <c r="A28" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I28" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L28" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" s="91"/>
+    </row>
+    <row r="29" ht="69.75" customHeight="1">
+      <c r="A29" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I29" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L29" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M29" s="92"/>
+    </row>
+    <row r="30" ht="69.75" customHeight="1">
+      <c r="A30" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I30" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L30" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" s="92"/>
+    </row>
+    <row r="31" ht="69.75" customHeight="1"/>
+    <row r="32" ht="69.75" customHeight="1"/>
+    <row r="33" ht="69.75" customHeight="1"/>
+    <row r="34" ht="69.75" customHeight="1"/>
+    <row r="35" ht="69.75" customHeight="1"/>
+    <row r="36" ht="69.75" customHeight="1"/>
+    <row r="37" ht="69.75" customHeight="1"/>
+    <row r="38" ht="69.75" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="13" width="25.71"/>
+    <col customWidth="1" min="14" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="69.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" ht="69.75" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" ht="69.75" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" ht="69.75" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="20">
+        <v>19.0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>19.0</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" ht="69.75" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" s="20">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
       <c r="E5" s="21">
         <v>0.0</v>
       </c>
-      <c r="F5" s="16">
-        <v>13.0</v>
+      <c r="F5" s="20">
+        <v>19.0</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="52"/>
@@ -17845,8 +20435,8 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" ht="69.75" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>209</v>
+      <c r="A10" s="67" t="s">
+        <v>274</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -17862,291 +20452,705 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" ht="69.75" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
+      <c r="A11" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L11" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M11" s="7"/>
     </row>
     <row r="12" ht="69.75" customHeight="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
+      <c r="A12" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M12" s="7"/>
     </row>
     <row r="13" ht="69.75" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
+      <c r="A13" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" ht="69.75" customHeight="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
+      <c r="A14" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" ht="69.75" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="A15" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L15" s="81" t="s">
+        <v>208</v>
+      </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16" ht="69.75" customHeight="1">
-      <c r="A16" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
+      <c r="A16" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" ht="69.75" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J17" s="76" t="s">
+      <c r="A17" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L17" s="78" t="s">
-        <v>211</v>
+      <c r="H17" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="80">
+        <v>45754.0</v>
+      </c>
+      <c r="L17" s="81" t="s">
+        <v>208</v>
       </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18" ht="69.75" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" s="76" t="s">
+      <c r="A18" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L18" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" ht="69.75" customHeight="1">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78" t="s">
-        <v>211</v>
+      <c r="H19" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>208</v>
       </c>
       <c r="J19" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L19" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" ht="69.75" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20" s="76" t="s">
+      <c r="K19" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L19" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="84"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L20" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" ht="69.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" s="76" t="s">
+      <c r="H20" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I20" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L21" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" ht="96.0" customHeight="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" s="76" t="s">
+      <c r="K20" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L20" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="83"/>
+    </row>
+    <row r="21" ht="120.0" customHeight="1">
+      <c r="A21" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L22" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" ht="69.75" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J23" s="76" t="s">
+      <c r="H21" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L23" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" ht="69.75" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" s="76" t="s">
+      <c r="K21" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="83"/>
+    </row>
+    <row r="22" ht="123.0" customHeight="1">
+      <c r="A22" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L24" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" ht="69.75" customHeight="1"/>
-    <row r="26" ht="69.75" customHeight="1"/>
-    <row r="27" ht="69.75" customHeight="1"/>
-    <row r="28" ht="69.75" customHeight="1"/>
-    <row r="29" ht="69.75" customHeight="1"/>
-    <row r="30" ht="69.75" customHeight="1"/>
-    <row r="31" ht="69.75" customHeight="1"/>
-    <row r="32" ht="69.75" customHeight="1"/>
-    <row r="33" ht="69.75" customHeight="1"/>
-    <row r="34" ht="69.75" customHeight="1"/>
+      <c r="H22" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I22" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L22" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" s="83"/>
+    </row>
+    <row r="23" ht="102.75" customHeight="1">
+      <c r="A23" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I23" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L23" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" s="83"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I24" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L24" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" s="93"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="93"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I26" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L26" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" s="93"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I27" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L27" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="93"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="I28" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="80">
+        <v>45755.0</v>
+      </c>
+      <c r="L28" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" s="93"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
     <row r="36" ht="14.25" customHeight="1"/>
     <row r="37" ht="14.25" customHeight="1"/>
@@ -19109,10 +22113,6 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="F7:F9"/>
@@ -19122,2189 +22122,7 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="13" width="25.71"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="69.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" ht="69.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" ht="69.75" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" ht="69.75" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="20">
-        <v>24.0</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>24.0</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" ht="69.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="20">
-        <v>24.0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>24.0</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" ht="408.0" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" ht="69.75" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="69.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" ht="69.75" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" ht="69.75" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" ht="69.75" customHeight="1">
-      <c r="A11" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I11" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J11" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" ht="69.75" customHeight="1">
-      <c r="A12" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I12" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L12" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" ht="69.75" customHeight="1">
-      <c r="A13" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I13" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J13" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L13" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" ht="69.75" customHeight="1">
-      <c r="A14" s="75" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I14" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J14" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L14" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" ht="69.75" customHeight="1">
-      <c r="A15" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I15" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J15" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L15" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" ht="69.75" customHeight="1">
-      <c r="A16" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I16" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J16" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L16" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" ht="69.75" customHeight="1">
-      <c r="A17" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J17" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L17" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" ht="69.75" customHeight="1">
-      <c r="A18" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I18" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L18" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" ht="69.75" customHeight="1">
-      <c r="A19" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I19" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L19" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" ht="69.75" customHeight="1">
-      <c r="A20" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I20" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L20" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" ht="69.75" customHeight="1">
-      <c r="A21" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I21" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L21" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" ht="69.75" customHeight="1">
-      <c r="A22" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" ht="69.75" customHeight="1">
-      <c r="A23" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I23" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J23" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L23" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" ht="69.75" customHeight="1">
-      <c r="A24" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I24" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L24" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" ht="120.0" customHeight="1">
-      <c r="A25" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I25" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" ht="123.0" customHeight="1">
-      <c r="A26" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="G26" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I26" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L26" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" ht="102.75" customHeight="1">
-      <c r="A27" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="B27" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="G27" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I27" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L27" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="F28" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="G28" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I28" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J28" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L28" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="G29" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I29" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L29" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="B30" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="C30" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="G30" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="77">
-        <v>45392.0</v>
-      </c>
-      <c r="I30" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L30" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I31" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L31" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="B32" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="G32" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="77">
-        <v>45394.0</v>
-      </c>
-      <c r="I32" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="B33" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="G33" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I33" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L33" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="B34" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="G34" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I34" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L34" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="D35" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="G35" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="77">
-        <v>45387.0</v>
-      </c>
-      <c r="I35" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="77">
-        <v>45389.0</v>
-      </c>
-      <c r="L35" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A18:M18"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
